--- a/biology/Botanique/Clé_de_détermination_des_pins_de_France/Clé_de_détermination_des_pins_de_France.xlsx
+++ b/biology/Botanique/Clé_de_détermination_des_pins_de_France/Clé_de_détermination_des_pins_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%A9_de_d%C3%A9termination_des_pins_de_France</t>
+          <t>Clé_de_détermination_des_pins_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces clés de détermination permettent de déterminer les espèces du genre Pinus de France métropolitaine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cl%C3%A9_de_d%C3%A9termination_des_pins_de_France</t>
+          <t>Clé_de_détermination_des_pins_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Selon la Flore forestière française</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette clé de détermination a été inspirée de divers ouvrages tel Flore forestière française (Jean-Claude Rameau (auteur principal), Institut pour le Développement Forestier, 1993, Tomme I et II) et Guide de Dendrologie (M. Jacamond, ENGREF, 2001, 4e édition).
 Aiguilles groupées par cinq
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cl%C3%A9_de_d%C3%A9termination_des_pins_de_France</t>
+          <t>Clé_de_détermination_des_pins_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,7 +578,9 @@
           <t>Selon Paul Fournier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cette clé de détermination des pins de France s'inspire de la Flore de Paul Fournier:
 Feuilles par faisceaux de 5.
